--- a/biology/Médecine/Hôpital_Nuestra_Señora_de_Gracia/Hôpital_Nuestra_Señora_de_Gracia.xlsx
+++ b/biology/Médecine/Hôpital_Nuestra_Señora_de_Gracia/Hôpital_Nuestra_Señora_de_Gracia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_Nuestra_Se%C3%B1ora_de_Gracia</t>
+          <t>Hôpital_Nuestra_Señora_de_Gracia</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'Hospital de Nuestra Señora de Gracia o provincial (« hôpital Notre-Dame de Grâce ou provincial ») dessert la ville de Saragosse, capitale de la communauté autonome d'Aragon en Espagne[1]. Il a été fondé en 1425 sous le titre d'« hôpital royal et général » par Alphonse le Magnanime, pour qu'y soient accueillis « les enfants trouvés et les malades de toutes sortes, y compris les malades mentaux, non seulement d'Aragon, mais des royaumes voisins et même de plus loin[2] ».
-En 1596, on a construit à proximité de son cimetière une Casa anatomia, deuxième théâtre anatomique permanent connu, après celui de l'université de Padoue, édifié deux ans plus tôt, en 1594[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Hospital de Nuestra Señora de Gracia o provincial (« hôpital Notre-Dame de Grâce ou provincial ») dessert la ville de Saragosse, capitale de la communauté autonome d'Aragon en Espagne. Il a été fondé en 1425 sous le titre d'« hôpital royal et général » par Alphonse le Magnanime, pour qu'y soient accueillis « les enfants trouvés et les malades de toutes sortes, y compris les malades mentaux, non seulement d'Aragon, mais des royaumes voisins et même de plus loin ».
+En 1596, on a construit à proximité de son cimetière une Casa anatomia, deuxième théâtre anatomique permanent connu, après celui de l'université de Padoue, édifié deux ans plus tôt, en 1594.
 </t>
         </is>
       </c>
